--- a/random_customers.xlsx
+++ b/random_customers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,1260 +454,1105 @@
           <t>contact_number</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>address_id</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cisneros</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30/10/1973</t>
+          <t>20/11/1985</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>99724097</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>6</v>
+          <t>83682694</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Rodriguez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10/5/1992</t>
+          <t>27/1/1972</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92288120</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>7</v>
+          <t>84972433</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Phillips</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Blake</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3/3/1982</t>
+          <t>29/10/1997</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90954113</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8</v>
+          <t>88822737</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bradley</t>
+          <t>Nathaniel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10/10/1982</t>
+          <t>4/8/1974</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93682124</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9</v>
+          <t>91567523</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Holt</t>
+          <t>Crawford</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brandon</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31/3/1983</t>
+          <t>24/1/2004</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83905445</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>10</v>
+          <t>82144786</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fisher</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carrie</t>
+          <t>Keith</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7/12/2003</t>
+          <t>26/10/1992</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>96897706</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>11</v>
+          <t>84988851</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Prince</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Crystal</t>
+          <t>Latoya</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21/12/1987</t>
+          <t>21/12/1975</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84202162</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>12</v>
+          <t>91138817</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Baker</t>
+          <t>Perez</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Shannon</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16/11/1978</t>
+          <t>29/10/1999</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90163069</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>13</v>
+          <t>80298698</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Le</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Beverly</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30/7/1985</t>
+          <t>20/1/2000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92752128</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>14</v>
+          <t>98180771</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Nichols</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>29/7/1995</t>
+          <t>9/6/1987</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91641571</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>15</v>
+          <t>94116124</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Castillo</t>
+          <t>Moreno</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Shannon</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11/6/1996</t>
+          <t>4/7/1977</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>87865424</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>16</v>
+          <t>84962486</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ross</t>
+          <t>Wheeler</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Theodore</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10/3/1993</t>
+          <t>12/3/1976</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>82729964</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>17</v>
+          <t>96022580</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mendoza</t>
+          <t>Soto</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Rebecca</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18/3/1989</t>
+          <t>23/10/1989</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93713851</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>18</v>
+          <t>89130023</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dawson</t>
+          <t>Fowler</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>23/9/1997</t>
+          <t>16/4/1988</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>80227064</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>19</v>
+          <t>99271532</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Nunez</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ann</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>31/8/1997</t>
+          <t>22/9/1993</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90834689</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>20</v>
+          <t>98353733</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Beasley</t>
+          <t>Moore</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8/3/1982</t>
+          <t>27/11/2002</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>85962637</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>21</v>
+          <t>84368321</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Holmes</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Larry</t>
+          <t>Dennis</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8/5/1997</t>
+          <t>3/8/1978</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>85586487</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>22</v>
+          <t>80439463</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Blake</t>
+          <t>Vance</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Michele</t>
+          <t>Tina</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20/11/1975</t>
+          <t>28/2/1971</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>97698375</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>23</v>
+          <t>81109129</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>Diaz</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2/10/1986</t>
+          <t>4/12/2000</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>95282618</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>24</v>
+          <t>80188846</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Quinn</t>
+          <t>Hanna</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kathleen</t>
+          <t>Dave</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3/9/1988</t>
+          <t>24/1/1978</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93229969</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>25</v>
+          <t>81431274</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fields</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16/11/2002</t>
+          <t>8/9/1971</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>82462650</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>26</v>
+          <t>91898981</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lane</t>
+          <t>Baker</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jeffrey</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1/9/1983</t>
+          <t>29/12/1984</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>96385853</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>27</v>
+          <t>95421177</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Campbell</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dillon</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>24/2/1980</t>
+          <t>5/2/2001</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>81802652</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>28</v>
+          <t>85542981</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sheena</t>
+          <t>Jesse</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9/5/1998</t>
+          <t>29/12/1995</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>96604274</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>29</v>
+          <t>98686545</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Harrison</t>
+          <t>Mays</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>29/5/1976</t>
+          <t>25/10/1991</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>99801850</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>30</v>
+          <t>98475666</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Craig</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>24/12/1978</t>
+          <t>1/1/1997</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>88303676</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>31</v>
+          <t>94146613</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jennings</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Meghan</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13/3/1977</t>
+          <t>9/3/1988</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>80308371</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>32</v>
+          <t>89252276</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Shelly</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>31/1/2001</t>
+          <t>13/10/1993</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>80115461</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>33</v>
+          <t>90768182</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Barnes</t>
+          <t>Owens</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Janet</t>
+          <t>Dillon</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17/1/1971</t>
+          <t>10/4/1980</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>91438179</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>34</v>
+          <t>85706850</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ortiz</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>7/1/1980</t>
+          <t>29/11/1995</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>81484765</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>35</v>
+          <t>94678869</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Howard</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Erin</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1/1/1980</t>
+          <t>11/5/1981</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>91504122</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>36</v>
+          <t>81065066</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ellison</t>
+          <t>Bailey</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10/10/1981</t>
+          <t>12/5/1993</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>91972144</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>37</v>
+          <t>89722982</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Baker</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17/9/1977</t>
+          <t>1/1/1978</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>91984665</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>38</v>
+          <t>80040184</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Campos</t>
+          <t>Robinson</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16/3/1979</t>
+          <t>3/6/1975</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>80441158</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>39</v>
+          <t>92855189</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Shaw</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Debra</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17/12/1974</t>
+          <t>14/2/2004</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>85449272</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>40</v>
+          <t>80495354</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Freeman</t>
+          <t>Oneill</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Holly</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2/5/1991</t>
+          <t>21/10/1975</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>94090925</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>41</v>
+          <t>82406855</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Alvarez</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Xavier</t>
+          <t>Kristen</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>7/2/2004</t>
+          <t>19/11/1999</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>96340334</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>42</v>
+          <t>85641114</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Dunn</t>
+          <t>Calderon</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Corey</t>
+          <t>Kaitlyn</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6/6/2003</t>
+          <t>8/7/1982</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>83972122</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>43</v>
+          <t>97364480</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ortiz</t>
+          <t>Frey</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Herbert</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>6/3/1997</t>
+          <t>24/5/1987</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>88120297</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>44</v>
+          <t>89848562</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Glass</t>
+          <t>Gaines</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Donald</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>25/10/1996</t>
+          <t>10/11/1993</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>98439587</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>45</v>
+          <t>85131371</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Guzman</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14/4/2000</t>
+          <t>30/12/1999</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>98242925</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>46</v>
+          <t>95787425</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Walker</t>
+          <t>Gonzalez</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Erik</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>14/11/1979</t>
+          <t>29/5/2006</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>86613671</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>47</v>
+          <t>95402559</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Munoz</t>
+          <t>Villanueva</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Shawn</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>29/5/1990</t>
+          <t>6/7/1997</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>85917666</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>48</v>
+          <t>86583924</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Jenkins</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Debbie</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10/4/1977</t>
+          <t>8/11/1997</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>84753344</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>49</v>
+          <t>88360857</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Cisneros</t>
+          <t>Bryan</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>17/8/1989</t>
+          <t>7/5/2002</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>81827015</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>50</v>
+          <t>88413013</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Turner</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>23/7/1998</t>
+          <t>13/5/1972</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>97900679</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>51</v>
+          <t>93689726</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Pena</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Jared</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>28/12/1986</t>
+          <t>9/9/1978</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>95989273</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>52</v>
+          <t>80483006</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Davenport</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Jeffery</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5/7/2001</t>
+          <t>31/7/1989</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>95787109</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>53</v>
+          <t>92415727</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Williamson</t>
+          <t>Rodriguez</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Travis</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>25/4/1986</t>
+          <t>31/7/1999</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>88281105</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>54</v>
+          <t>80285818</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Powell</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Crystal</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>13/10/1988</t>
+          <t>15/3/1995</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>81974711</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>55</v>
+          <t>83624445</t>
+        </is>
       </c>
     </row>
   </sheetData>
